--- a/Code/Results/Cases/Case_9_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_8/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017736528924036</v>
+        <v>1.016431228536999</v>
       </c>
       <c r="D2">
-        <v>1.035454684541744</v>
+        <v>1.033406862313779</v>
       </c>
       <c r="E2">
-        <v>1.021516032635671</v>
+        <v>1.020478336603956</v>
       </c>
       <c r="F2">
-        <v>1.033600161210956</v>
+        <v>1.032931580022956</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055180398423927</v>
+        <v>1.054089979494938</v>
       </c>
       <c r="J2">
-        <v>1.03939938264224</v>
+        <v>1.038131350389023</v>
       </c>
       <c r="K2">
-        <v>1.046441225914601</v>
+        <v>1.044419607745989</v>
       </c>
       <c r="L2">
-        <v>1.032683537178888</v>
+        <v>1.03165956139538</v>
       </c>
       <c r="M2">
-        <v>1.044610427630982</v>
+        <v>1.043950425769719</v>
       </c>
       <c r="N2">
-        <v>1.016347950701164</v>
+        <v>1.016922264272053</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043878543864034</v>
+        <v>1.04335619888897</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.043908241341057</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042487516401894</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023647327285081</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021894122662543</v>
+        <v>1.020322344785023</v>
       </c>
       <c r="D3">
-        <v>1.038366810335456</v>
+        <v>1.036011504344681</v>
       </c>
       <c r="E3">
-        <v>1.024854948141618</v>
+        <v>1.023571799200876</v>
       </c>
       <c r="F3">
-        <v>1.036549803562793</v>
+        <v>1.035755180214634</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.05653456792746</v>
+        <v>1.055261829957195</v>
       </c>
       <c r="J3">
-        <v>1.041805218782894</v>
+        <v>1.040273926777044</v>
       </c>
       <c r="K3">
-        <v>1.048531232576997</v>
+        <v>1.046203447408229</v>
       </c>
       <c r="L3">
-        <v>1.035179383574067</v>
+        <v>1.033911702866706</v>
       </c>
       <c r="M3">
-        <v>1.04673544317163</v>
+        <v>1.045950127669384</v>
       </c>
       <c r="N3">
-        <v>1.017217939260271</v>
+        <v>1.017523114680867</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045560341417483</v>
+        <v>1.044938820911514</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.045383392939728</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043745906407392</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02404038015471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024532993085097</v>
+        <v>1.022794260864384</v>
       </c>
       <c r="D4">
-        <v>1.040218632515835</v>
+        <v>1.037669556587359</v>
       </c>
       <c r="E4">
-        <v>1.026979433751221</v>
+        <v>1.025542480377285</v>
       </c>
       <c r="F4">
-        <v>1.038429795840661</v>
+        <v>1.037556191378254</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.057384694176546</v>
+        <v>1.055996964649665</v>
       </c>
       <c r="J4">
-        <v>1.043329301045735</v>
+        <v>1.041632328859856</v>
       </c>
       <c r="K4">
-        <v>1.049854726551489</v>
+        <v>1.047333645554869</v>
       </c>
       <c r="L4">
-        <v>1.03676279022738</v>
+        <v>1.035342102313318</v>
       </c>
       <c r="M4">
-        <v>1.048085517898502</v>
+        <v>1.047221529291871</v>
       </c>
       <c r="N4">
-        <v>1.01776875448718</v>
+        <v>1.017904143376258</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.046628826834744</v>
+        <v>1.045945043213697</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.046320091634941</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044546013350182</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024287063640435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025635912867666</v>
+        <v>1.023827373212849</v>
       </c>
       <c r="D5">
-        <v>1.04099571362618</v>
+        <v>1.038365685439374</v>
       </c>
       <c r="E5">
-        <v>1.02786962876286</v>
+        <v>1.026368234894396</v>
       </c>
       <c r="F5">
-        <v>1.03921603816749</v>
+        <v>1.038309427385382</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.057739593691307</v>
+        <v>1.056303730352082</v>
       </c>
       <c r="J5">
-        <v>1.043967733705808</v>
+        <v>1.042201334747063</v>
       </c>
       <c r="K5">
-        <v>1.050410462701247</v>
+        <v>1.047808552038924</v>
       </c>
       <c r="L5">
-        <v>1.037426468153502</v>
+        <v>1.035941611538942</v>
       </c>
       <c r="M5">
-        <v>1.048649794611167</v>
+        <v>1.04775289734386</v>
       </c>
       <c r="N5">
-        <v>1.018000884042324</v>
+        <v>1.018064687882639</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047075410128703</v>
+        <v>1.046365582133853</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046720144159719</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044889629386277</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02439113667417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025827038291176</v>
+        <v>1.024005789259603</v>
       </c>
       <c r="D6">
-        <v>1.041133224214176</v>
+        <v>1.038488837396576</v>
       </c>
       <c r="E6">
-        <v>1.028025223011397</v>
+        <v>1.026511934353429</v>
       </c>
       <c r="F6">
-        <v>1.039350768872735</v>
+        <v>1.038438173499013</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.057803243415492</v>
+        <v>1.056358756314253</v>
       </c>
       <c r="J6">
-        <v>1.044080963928183</v>
+        <v>1.042301933560202</v>
       </c>
       <c r="K6">
-        <v>1.050510777047246</v>
+        <v>1.047894532003269</v>
       </c>
       <c r="L6">
-        <v>1.037544015064591</v>
+        <v>1.036047317385615</v>
       </c>
       <c r="M6">
-        <v>1.048747271478093</v>
+        <v>1.047844408988345</v>
       </c>
       <c r="N6">
-        <v>1.018043842380634</v>
+        <v>1.018094190425448</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047152555833799</v>
+        <v>1.046438006878099</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046799739230541</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044959963860468</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02441114217969</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024565699493096</v>
+        <v>1.022832927469871</v>
       </c>
       <c r="D7">
-        <v>1.040249171078625</v>
+        <v>1.03770415690493</v>
       </c>
       <c r="E7">
-        <v>1.027009268089946</v>
+        <v>1.025577803887135</v>
       </c>
       <c r="F7">
-        <v>1.038448709672475</v>
+        <v>1.03757780626912</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.057401363173438</v>
+        <v>1.056016659272371</v>
       </c>
       <c r="J7">
-        <v>1.04335535495951</v>
+        <v>1.041664180794237</v>
       </c>
       <c r="K7">
-        <v>1.0498820839828</v>
+        <v>1.047365008683823</v>
       </c>
       <c r="L7">
-        <v>1.036789391632543</v>
+        <v>1.035374124079728</v>
       </c>
       <c r="M7">
-        <v>1.048101370426603</v>
+        <v>1.047240049498916</v>
       </c>
       <c r="N7">
-        <v>1.017783131058621</v>
+        <v>1.017943211478259</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046641372942251</v>
+        <v>1.045959700606047</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.046359370564197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044590136609751</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024298635504767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01917530299084</v>
+        <v>1.017805120065546</v>
       </c>
       <c r="D8">
-        <v>1.036470984918297</v>
+        <v>1.034338063128471</v>
       </c>
       <c r="E8">
-        <v>1.022674973481053</v>
+        <v>1.021578500101153</v>
       </c>
       <c r="F8">
-        <v>1.034613698819675</v>
+        <v>1.0339139640081</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055658515250093</v>
+        <v>1.054519936657602</v>
       </c>
       <c r="J8">
-        <v>1.040241524645191</v>
+        <v>1.038909145676746</v>
       </c>
       <c r="K8">
-        <v>1.047178595826468</v>
+        <v>1.045072155960022</v>
       </c>
       <c r="L8">
-        <v>1.033556313702627</v>
+        <v>1.032473899516106</v>
       </c>
       <c r="M8">
-        <v>1.045344361761436</v>
+        <v>1.044653338593439</v>
       </c>
       <c r="N8">
-        <v>1.016659058698118</v>
+        <v>1.017226939441002</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.044459400582478</v>
+        <v>1.043912504854724</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044452349834677</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04297392841098</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023800393997061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009235227403645</v>
+        <v>1.008522639449824</v>
       </c>
       <c r="D9">
-        <v>1.029521372775449</v>
+        <v>1.028136988396071</v>
       </c>
       <c r="E9">
-        <v>1.014719851765684</v>
+        <v>1.014229633696215</v>
       </c>
       <c r="F9">
-        <v>1.027613655914959</v>
+        <v>1.027224741889811</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.05236197290412</v>
+        <v>1.05166722826007</v>
       </c>
       <c r="J9">
-        <v>1.034466028588118</v>
+        <v>1.033777989766321</v>
       </c>
       <c r="K9">
-        <v>1.042152979165127</v>
+        <v>1.040789480658859</v>
       </c>
       <c r="L9">
-        <v>1.027578540116329</v>
+        <v>1.027095987877251</v>
       </c>
       <c r="M9">
-        <v>1.040274062241406</v>
+        <v>1.039891036199625</v>
       </c>
       <c r="N9">
-        <v>1.014563442652199</v>
+        <v>1.01579575280752</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.040446609286698</v>
+        <v>1.040143469769544</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040895789147476</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039942396141202</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022840940334325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002412298175769</v>
+        <v>1.002196609132494</v>
       </c>
       <c r="D10">
-        <v>1.024786735344651</v>
+        <v>1.023949593706873</v>
       </c>
       <c r="E10">
-        <v>1.009311432744033</v>
+        <v>1.009278129812049</v>
       </c>
       <c r="F10">
-        <v>1.023016519647623</v>
+        <v>1.02286214833656</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050087881273138</v>
+        <v>1.04971957211319</v>
       </c>
       <c r="J10">
-        <v>1.030530532717968</v>
+        <v>1.030323345671288</v>
       </c>
       <c r="K10">
-        <v>1.038722428954459</v>
+        <v>1.037899488149488</v>
       </c>
       <c r="L10">
-        <v>1.023514577258775</v>
+        <v>1.023481861348689</v>
       </c>
       <c r="M10">
-        <v>1.036982277637698</v>
+        <v>1.036830534455289</v>
       </c>
       <c r="N10">
-        <v>1.013159889629679</v>
+        <v>1.014964852628704</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.037892852514463</v>
+        <v>1.03777276501157</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.038486922831168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037917424026938</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022201602240166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000207744854733</v>
+        <v>1.000122528909166</v>
       </c>
       <c r="D11">
-        <v>1.023353411426857</v>
+        <v>1.022676341538998</v>
       </c>
       <c r="E11">
-        <v>1.007731022875331</v>
+        <v>1.007795821913805</v>
       </c>
       <c r="F11">
-        <v>1.022829411530295</v>
+        <v>1.022739301746408</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049608486381828</v>
+        <v>1.04933310822383</v>
       </c>
       <c r="J11">
-        <v>1.029571883951168</v>
+        <v>1.029490211423761</v>
       </c>
       <c r="K11">
-        <v>1.037847957510195</v>
+        <v>1.037182921513463</v>
       </c>
       <c r="L11">
-        <v>1.022508601433964</v>
+        <v>1.022572202876936</v>
       </c>
       <c r="M11">
-        <v>1.037333269108814</v>
+        <v>1.037244761826559</v>
       </c>
       <c r="N11">
-        <v>1.013021779756444</v>
+        <v>1.015089545312884</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.038606765366174</v>
+        <v>1.038536757168598</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.037901349674398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037446715502088</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022147967407272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9996352728671298</v>
+        <v>0.9995493137894489</v>
       </c>
       <c r="D12">
-        <v>1.023012145501117</v>
+        <v>1.022353627835886</v>
       </c>
       <c r="E12">
-        <v>1.007395892484707</v>
+        <v>1.007440781213296</v>
       </c>
       <c r="F12">
-        <v>1.02337334757741</v>
+        <v>1.023285396270883</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.0495912255101</v>
+        <v>1.049323616595438</v>
       </c>
       <c r="J12">
-        <v>1.029455076625435</v>
+        <v>1.029372759720206</v>
       </c>
       <c r="K12">
-        <v>1.037711361349985</v>
+        <v>1.037064742724407</v>
       </c>
       <c r="L12">
-        <v>1.022382757445358</v>
+        <v>1.022426802638484</v>
       </c>
       <c r="M12">
-        <v>1.038066045164185</v>
+        <v>1.037979680478271</v>
       </c>
       <c r="N12">
-        <v>1.013134687596311</v>
+        <v>1.015247992119301</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039512523398962</v>
+        <v>1.039444233062516</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037804772479617</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037363161530516</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022192165549274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000304237397281</v>
+        <v>1.000100387648243</v>
       </c>
       <c r="D13">
-        <v>1.023513363051063</v>
+        <v>1.022753453437504</v>
       </c>
       <c r="E13">
-        <v>1.008017601845436</v>
+        <v>1.007935667741744</v>
       </c>
       <c r="F13">
-        <v>1.024546223024573</v>
+        <v>1.024405947431019</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049948507833229</v>
+        <v>1.049615205316841</v>
       </c>
       <c r="J13">
-        <v>1.030003152970377</v>
+        <v>1.029807893997964</v>
       </c>
       <c r="K13">
-        <v>1.038160965504257</v>
+        <v>1.037414725522736</v>
       </c>
       <c r="L13">
-        <v>1.022949268977454</v>
+        <v>1.022868867172882</v>
       </c>
       <c r="M13">
-        <v>1.039175288110172</v>
+        <v>1.039037527278577</v>
       </c>
       <c r="N13">
-        <v>1.013463630429725</v>
+        <v>1.015415916452371</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040665946233895</v>
+        <v>1.040557043198027</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.038120172408899</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037607878834066</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022322821737285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001326978618682</v>
+        <v>1.000990961503113</v>
       </c>
       <c r="D14">
-        <v>1.024240802187715</v>
+        <v>1.023358437649321</v>
       </c>
       <c r="E14">
-        <v>1.008878806193636</v>
+        <v>1.008663843103105</v>
       </c>
       <c r="F14">
-        <v>1.025636979967146</v>
+        <v>1.025437103238685</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050362842828856</v>
+        <v>1.049952127739314</v>
       </c>
       <c r="J14">
-        <v>1.030680233055716</v>
+        <v>1.030358168574574</v>
       </c>
       <c r="K14">
-        <v>1.038735996702945</v>
+        <v>1.037869304085652</v>
       </c>
       <c r="L14">
-        <v>1.023651953304826</v>
+        <v>1.023440957944262</v>
       </c>
       <c r="M14">
-        <v>1.04010744803109</v>
+        <v>1.039911105783711</v>
       </c>
       <c r="N14">
-        <v>1.013788357572311</v>
+        <v>1.015538612512106</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04157590148552</v>
+        <v>1.041420709393169</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.038528153813262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037930829526455</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022453464045143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001861330070235</v>
+        <v>1.001466606032339</v>
       </c>
       <c r="D15">
-        <v>1.024616271234915</v>
+        <v>1.023676875154794</v>
       </c>
       <c r="E15">
-        <v>1.009311757298316</v>
+        <v>1.009040391129099</v>
       </c>
       <c r="F15">
-        <v>1.026075302459628</v>
+        <v>1.02584861576744</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050557085765055</v>
+        <v>1.050110843968142</v>
       </c>
       <c r="J15">
-        <v>1.031006258487386</v>
+        <v>1.030627779083523</v>
       </c>
       <c r="K15">
-        <v>1.039018991741331</v>
+        <v>1.038096152236138</v>
       </c>
       <c r="L15">
-        <v>1.023989214334912</v>
+        <v>1.02372281747655</v>
       </c>
       <c r="M15">
-        <v>1.040452385862714</v>
+        <v>1.04022967615419</v>
       </c>
       <c r="N15">
-        <v>1.013922812556523</v>
+        <v>1.015579752733768</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.04188602743658</v>
+        <v>1.041709998687682</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.038734083595934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038097631252009</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022509763360693</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.00461775981208</v>
+        <v>1.003975162290913</v>
       </c>
       <c r="D16">
-        <v>1.026523626387468</v>
+        <v>1.025326479070365</v>
       </c>
       <c r="E16">
-        <v>1.011471523361435</v>
+        <v>1.010975875131932</v>
       </c>
       <c r="F16">
-        <v>1.027842025016731</v>
+        <v>1.027499924393251</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.051466230424423</v>
+        <v>1.050862792697112</v>
       </c>
       <c r="J16">
-        <v>1.032573153206592</v>
+        <v>1.031955663058711</v>
       </c>
       <c r="K16">
-        <v>1.040394629831864</v>
+        <v>1.039217651824582</v>
       </c>
       <c r="L16">
-        <v>1.025600620841283</v>
+        <v>1.025113640658409</v>
       </c>
       <c r="M16">
-        <v>1.041690886409521</v>
+        <v>1.041354524210423</v>
       </c>
       <c r="N16">
-        <v>1.014455455528348</v>
+        <v>1.015718827061287</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.0428262775265</v>
+        <v>1.042560410765063</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.039709848096817</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038894009227397</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022745014915173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006204970074737</v>
+        <v>1.005449751751191</v>
       </c>
       <c r="D17">
-        <v>1.027613292782198</v>
+        <v>1.026288518355692</v>
       </c>
       <c r="E17">
-        <v>1.012686705105314</v>
+        <v>1.012095450900231</v>
       </c>
       <c r="F17">
-        <v>1.028626302060527</v>
+        <v>1.028230400181072</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.051948696523244</v>
+        <v>1.05126940257475</v>
       </c>
       <c r="J17">
-        <v>1.033426771154712</v>
+        <v>1.032700103008788</v>
       </c>
       <c r="K17">
-        <v>1.04115388470632</v>
+        <v>1.03985079738864</v>
       </c>
       <c r="L17">
-        <v>1.026475887846141</v>
+        <v>1.02589467544121</v>
       </c>
       <c r="M17">
-        <v>1.042150359029255</v>
+        <v>1.041760914317868</v>
       </c>
       <c r="N17">
-        <v>1.014696883330255</v>
+        <v>1.015792284950621</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043060627121951</v>
+        <v>1.042752772414605</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.040249236019307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039344480602736</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022859593786799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.006889673044098</v>
+        <v>1.006122276103643</v>
       </c>
       <c r="D18">
-        <v>1.028056278700167</v>
+        <v>1.026701028612921</v>
       </c>
       <c r="E18">
-        <v>1.013154625519591</v>
+        <v>1.012565122787255</v>
       </c>
       <c r="F18">
-        <v>1.028518680228076</v>
+        <v>1.028114484365378</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.052073675021671</v>
+        <v>1.051379154843601</v>
       </c>
       <c r="J18">
-        <v>1.033694900046048</v>
+        <v>1.032955969915397</v>
       </c>
       <c r="K18">
-        <v>1.041407681578449</v>
+        <v>1.040074252273836</v>
       </c>
       <c r="L18">
-        <v>1.026750091579198</v>
+        <v>1.026170434209627</v>
       </c>
       <c r="M18">
-        <v>1.041862654889724</v>
+        <v>1.041464951731302</v>
       </c>
       <c r="N18">
-        <v>1.014682316169271</v>
+        <v>1.015758200192468</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042595887256674</v>
+        <v>1.042281438999</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.04041710267201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039489754625926</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022862383591292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006741866318092</v>
+        <v>1.00604650283067</v>
       </c>
       <c r="D19">
-        <v>1.027907781157903</v>
+        <v>1.026606459063852</v>
       </c>
       <c r="E19">
-        <v>1.012935464391439</v>
+        <v>1.012428699235643</v>
       </c>
       <c r="F19">
-        <v>1.027545437918416</v>
+        <v>1.027171510711488</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.05186553995816</v>
+        <v>1.051207786140849</v>
       </c>
       <c r="J19">
-        <v>1.033419418407129</v>
+        <v>1.032749707056454</v>
       </c>
       <c r="K19">
-        <v>1.041199514365467</v>
+        <v>1.039919039477446</v>
       </c>
       <c r="L19">
-        <v>1.026471222471681</v>
+        <v>1.025972879401373</v>
       </c>
       <c r="M19">
-        <v>1.040842969070423</v>
+        <v>1.040475030665686</v>
       </c>
       <c r="N19">
-        <v>1.014442598331992</v>
+        <v>1.015609003006002</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.041464557942724</v>
+        <v>1.041173548741017</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040276284266693</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039387003482814</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022765053351366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00423413115784</v>
+        <v>1.003850490160629</v>
       </c>
       <c r="D20">
-        <v>1.026068233622195</v>
+        <v>1.025059501816064</v>
       </c>
       <c r="E20">
-        <v>1.010764800517751</v>
+        <v>1.010573483704157</v>
       </c>
       <c r="F20">
-        <v>1.024237866920264</v>
+        <v>1.024004941609693</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050714857351833</v>
+        <v>1.050241269177035</v>
       </c>
       <c r="J20">
-        <v>1.031602804255825</v>
+        <v>1.031233784562517</v>
       </c>
       <c r="K20">
-        <v>1.039667685608465</v>
+        <v>1.038675571714065</v>
       </c>
       <c r="L20">
-        <v>1.024620968561524</v>
+        <v>1.024432924678484</v>
       </c>
       <c r="M20">
-        <v>1.037867503613503</v>
+        <v>1.037638429451994</v>
       </c>
       <c r="N20">
-        <v>1.013558588439371</v>
+        <v>1.015121521818222</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.038582859629757</v>
+        <v>1.038401571275243</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.039197141356684</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.038512134961339</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022379004520771</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9989365279016275</v>
+        <v>0.9990988605978847</v>
       </c>
       <c r="D21">
-        <v>1.022379257045255</v>
+        <v>1.021915329454796</v>
       </c>
       <c r="E21">
-        <v>1.006546019021607</v>
+        <v>1.006871548130819</v>
       </c>
       <c r="F21">
-        <v>1.020433904089519</v>
+        <v>1.020455760615808</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048878793555867</v>
+        <v>1.04874197156229</v>
       </c>
       <c r="J21">
-        <v>1.028478779835513</v>
+        <v>1.02863430645476</v>
       </c>
       <c r="K21">
-        <v>1.036948699331862</v>
+        <v>1.036493073304661</v>
       </c>
       <c r="L21">
-        <v>1.021404427332012</v>
+        <v>1.02172389596339</v>
       </c>
       <c r="M21">
-        <v>1.035038222368315</v>
+        <v>1.035059686094406</v>
       </c>
       <c r="N21">
-        <v>1.012404986933757</v>
+        <v>1.014827169168612</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.036302780799193</v>
+        <v>1.036319767998768</v>
       </c>
       <c r="Q21">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.037277957508971</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036972599519434</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021896323571202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9955628474756045</v>
+        <v>0.9960725838065163</v>
       </c>
       <c r="D22">
-        <v>1.020033942570462</v>
+        <v>1.019916232924735</v>
       </c>
       <c r="E22">
-        <v>1.003871800911668</v>
+        <v>1.004526801227279</v>
       </c>
       <c r="F22">
-        <v>1.018109111863891</v>
+        <v>1.018293330039295</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04771096762023</v>
+        <v>1.047787583295532</v>
       </c>
       <c r="J22">
-        <v>1.0264990345292</v>
+        <v>1.026986128142783</v>
       </c>
       <c r="K22">
-        <v>1.03521870317253</v>
+        <v>1.03510320761606</v>
       </c>
       <c r="L22">
-        <v>1.019366944905987</v>
+        <v>1.020009111553182</v>
       </c>
       <c r="M22">
-        <v>1.033330162042087</v>
+        <v>1.033510899322735</v>
       </c>
       <c r="N22">
-        <v>1.011678906860878</v>
+        <v>1.014639352976623</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.034950956351481</v>
+        <v>1.035093998888987</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.036041324709525</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035975157424954</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021590296543891</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9973401766244956</v>
+        <v>0.9976524049667573</v>
       </c>
       <c r="D23">
-        <v>1.021262372548092</v>
+        <v>1.020950794398789</v>
       </c>
       <c r="E23">
-        <v>1.005275755907111</v>
+        <v>1.005742976559216</v>
       </c>
       <c r="F23">
-        <v>1.019336929354046</v>
+        <v>1.019428930377359</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04832183418169</v>
+        <v>1.048278214556743</v>
       </c>
       <c r="J23">
-        <v>1.027535399845291</v>
+        <v>1.027834173688657</v>
       </c>
       <c r="K23">
-        <v>1.036120726479234</v>
+        <v>1.035814857429766</v>
       </c>
       <c r="L23">
-        <v>1.020433011797426</v>
+        <v>1.020891320472596</v>
       </c>
       <c r="M23">
-        <v>1.034230636290428</v>
+        <v>1.034320944127334</v>
       </c>
       <c r="N23">
-        <v>1.012053350439285</v>
+        <v>1.014685656036158</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.035663626527193</v>
+        <v>1.035735099605356</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036669481303314</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036467768165606</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021740718108589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004212464468345</v>
+        <v>1.003842286438257</v>
       </c>
       <c r="D24">
-        <v>1.02603416520331</v>
+        <v>1.025035037822721</v>
       </c>
       <c r="E24">
-        <v>1.01072668178679</v>
+        <v>1.010550841587955</v>
       </c>
       <c r="F24">
-        <v>1.024100918758186</v>
+        <v>1.023873842324422</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050673462947009</v>
+        <v>1.050206661598846</v>
       </c>
       <c r="J24">
-        <v>1.031549317772952</v>
+        <v>1.031193228744829</v>
       </c>
       <c r="K24">
-        <v>1.039619012846934</v>
+        <v>1.038636325294863</v>
       </c>
       <c r="L24">
-        <v>1.024568007545718</v>
+        <v>1.024395171879622</v>
       </c>
       <c r="M24">
-        <v>1.037717613736619</v>
+        <v>1.037494288203595</v>
       </c>
       <c r="N24">
-        <v>1.013512633310234</v>
+        <v>1.015090754846057</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.038423348703022</v>
+        <v>1.038246600984187</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.039135444277579</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.0384544256568</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022356125386084</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011886490480727</v>
+        <v>1.010980496265323</v>
       </c>
       <c r="D25">
-        <v>1.031382842418934</v>
+        <v>1.029786131465553</v>
       </c>
       <c r="E25">
-        <v>1.016842618482514</v>
+        <v>1.016172595317718</v>
       </c>
       <c r="F25">
-        <v>1.029465704156507</v>
+        <v>1.028985729051584</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.05325890710036</v>
+        <v>1.052436898982324</v>
       </c>
       <c r="J25">
-        <v>1.036020343254088</v>
+        <v>1.035143890589594</v>
       </c>
       <c r="K25">
-        <v>1.04351275866668</v>
+        <v>1.041939005771034</v>
       </c>
       <c r="L25">
-        <v>1.029184982057759</v>
+        <v>1.028524934936913</v>
       </c>
       <c r="M25">
-        <v>1.041623196545516</v>
+        <v>1.041150145787289</v>
       </c>
       <c r="N25">
-        <v>1.015136451154554</v>
+        <v>1.016149838254747</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041514357920688</v>
+        <v>1.041139970391661</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041885643945341</v>
+        <v>1.040786400562072</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023104047936306</v>
       </c>
     </row>
   </sheetData>
